--- a/Pertemuan 10-14/Model_NVDA.xlsx
+++ b/Pertemuan 10-14/Model_NVDA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -39,12 +39,24 @@
     <t xml:space="preserve">Semua parameter signifikan</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(0,1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(1,1,2)</t>
   </si>
   <si>
     <t xml:space="preserve">NA, NA, NA</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(1,1,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, ma3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(2,1,3)</t>
   </si>
   <si>
@@ -54,6 +66,15 @@
     <t xml:space="preserve">Semua parameter tidak signifikan</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(2,1,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ma1, NA, ma3, ma4</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(3,1,4)</t>
   </si>
   <si>
@@ -63,6 +84,12 @@
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma2, ma3</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(3,1,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma2, ma3, ma5</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(4,1,5)</t>
   </si>
   <si>
@@ -72,12 +99,27 @@
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ma1, ma2, ma3, ma4, ma5</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(4,1,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, ar4, NA, NA, NA, NA, ma5, NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(5,1,6)</t>
   </si>
   <si>
     <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(5,1,7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, ma5, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ar3, ar4, NA, ma1, NA, NA, ma4, NA, ma7</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(6,1,7)</t>
   </si>
   <si>
@@ -85,6 +127,15 @@
   </si>
   <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ma1, ma2, ma3, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(6,1,8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar5, ar6, ma1, ma2, ma3, NA, NA, ma6, ma7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ar4, NA, NA, ma8</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(1,1,1)</t>
@@ -578,13 +629,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-8913.4370065277</v>
+        <v>-8915.36597255735</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -592,69 +643,167 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-8910.90780896404</v>
+        <v>-8913.4370065277</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-8912.46661567582</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-8914.23038380045</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-8910.90780896404</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-8909.20488614636</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-8908.85752392706</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-8911.69312437668</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-8914.23038380045</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="n">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-8910.52279906718</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-8909.20488614636</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-8907.53837315562</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-8911.69312437668</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-8903.59238432361</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="n">
         <v>-8914.57172215042</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-8914.8737670465</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -687,13 +836,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
         <v>5071.50030265783</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -701,41 +850,41 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B3" t="n">
         <v>5075.46375622732</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>5074.47657918204</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B5" t="n">
         <v>5063.52958320186</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -743,13 +892,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B6" t="n">
         <v>5066.35011666998</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -757,13 +906,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B7" t="n">
         <v>5070.90405094463</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -799,100 +948,100 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n">
         <v>-8933.89719060704</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B3" t="n">
         <v>-8931.42107184697</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B4" t="n">
         <v>-8932.56951777845</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B5" t="n">
         <v>-8929.09497303372</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B6" t="n">
         <v>-8926.06435605311</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B7" t="n">
         <v>-8925.99824776606</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>-8928.54494810254</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -925,86 +1074,86 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
         <v>5072.76274497512</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B3" t="n">
         <v>5076.70245938524</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>5075.72828646516</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B5" t="n">
         <v>5064.34208321318</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B6" t="n">
         <v>5064.22451241972</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B7" t="n">
         <v>5066.40461569633</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1192,7 @@
         <v>-8915.40153960128</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1051,13 +1200,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>-8911.48745123196</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1065,69 +1214,69 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>-8908.30867474027</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
         <v>-8909.15773477379</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>-8907.158268298</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
         <v>-8904.8960462401</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>-8909.83479296358</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>

--- a/Pertemuan 10-14/Model_NVDA.xlsx
+++ b/Pertemuan 10-14/Model_NVDA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -78,64 +78,67 @@
     <t xml:space="preserve">ARIMA(3,1,4)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar2, ar3, ma1, ma4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma2, ma3</t>
+    <t xml:space="preserve">NA, NA, ar3, NA, NA, NA, NA</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(3,1,5)</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma2, ma3, ma5</t>
+    <t xml:space="preserve">ar1, ar2, ar3, ma1, NA, NA, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ma5</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(4,1,5)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ma1, ma2, ma3, ma4, ma5</t>
+    <t xml:space="preserve">ar2, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ma1, ma2, ma3, ma5</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(4,1,6)</t>
   </si>
   <si>
-    <t xml:space="preserve">NA, NA, NA, ar4, NA, NA, NA, NA, ma5, NA</t>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, ar4, NA, NA, NA, NA, ma5, ma6</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(5,1,6)</t>
   </si>
   <si>
-    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
+    <t xml:space="preserve">ar4, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ar3, NA, ma1, ma2, NA, ma4, ma5, NA</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(5,1,7)</t>
   </si>
   <si>
-    <t xml:space="preserve">NA, NA, NA, NA, ma5, NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ar3, ar4, NA, ma1, NA, NA, ma4, NA, ma7</t>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(6,1,7)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar2, ar5, ar6, ma7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ma1, ma2, ma3, ma4, ma5, ma6</t>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, ma3, NA, ma5, ma6, NA</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(6,1,8)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar1, ar2, ar5, ar6, ma1, ma2, ma3, NA, NA, ma6, ma7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ar4, NA, NA, ma8</t>
+    <t xml:space="preserve">ar1, ar6, ma1, ma2, ma6, ma7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ar4, ar5, ma3, ma4, ma5, ma8</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(1,1,1)</t>
@@ -144,19 +147,28 @@
     <t xml:space="preserve">NA, NA</t>
   </si>
   <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ma2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(2,1,2)</t>
   </si>
   <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, ma2</t>
   </si>
   <si>
+    <t xml:space="preserve">ar1, ar2, ma1, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(3,1,3)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar3, ma3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ma1, ma2</t>
+    <t xml:space="preserve">ar2, ar3, ma2, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma1</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(4,1,4)</t>
@@ -165,106 +177,190 @@
     <t xml:space="preserve">ar1, ar2, ar3, ar4, ma1, ma2, ma3, ma4</t>
   </si>
   <si>
+    <t xml:space="preserve">NA, NA, NA, ar4, NA, NA, NA, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, ma5</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(5,1,5)</t>
   </si>
   <si>
-    <t xml:space="preserve">NA, ar2, ar3, NA, NA, NA, ma2, ma3, NA, NA</t>
+    <t xml:space="preserve">NA, NA, ar3, NA, NA, NA, NA, ma3, NA, NA</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(6,1,6)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar1, NA, NA, NA, NA, ar6, ma1, NA, NA, NA, NA, ma6</t>
+    <t xml:space="preserve">ar1, NA, NA, NA, NA, ar6, ma1, NA, ma3, NA, NA, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, NA, NA, NA, ar6, ma1, NA, NA, NA, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar3, NA, NA, NA, ma3, NA, NA, ma7</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(0,0,1)</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(0,0,2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(1,0,2)</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(1,0,3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(2,0,3)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar1, ar2, ma1, ma2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ma3, intercept</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(2,0,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma3, ma4, intercept</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(3,0,4)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar2, ar3, ma2, ma3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma1, ma4, intercept</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(3,0,5)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIMA(4,0,5)</t>
   </si>
   <si>
-    <t xml:space="preserve">NA, NA, ar4, NA, NA, ma4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, NA, ma1, NA, NA, ma5, intercept</t>
+    <t xml:space="preserve">NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, NA, ar4, ma1, NA, NA, ma4, ma5, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(4,0,6)</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(5,0,6)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, ma1, ma2, ma3, ma4, ma5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma6, intercept</t>
+    <t xml:space="preserve">ar1, NA, ar3, ar4, ar5, ma1, ma2, ma3, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ma6, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(5,0,7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, ar5, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, NA, ma6, ma7, intercept</t>
   </si>
   <si>
     <t xml:space="preserve">ARIMA(6,0,7)</t>
   </si>
   <si>
+    <t xml:space="preserve">ARIMA(6,0,8)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, drift</t>
   </si>
   <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ma2, drift</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, NA, drift</t>
   </si>
   <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma3, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, ma5, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, ar3, ar4, NA, NA, ma2, ma3, ma4, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar6, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ar4, ar5, ma1, ma2, ma3, ma4, ma5, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar5, ar6, ma6, ma7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ar3, ar4, ma1, ma2, ma3, ma4, ma5, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma2, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, ma3, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, NA, ma3, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ma1, NA, ma3, ma4, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar3, ma1, ma4, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma2, ma3, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ma1, ma2, ma3, ma4, ma5, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, ar4, NA, NA, NA, NA, ma5, NA, NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA, NA, NA, NA, NA, NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, ar6, ma1, ma2, ma4, ma5, ma6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma3, drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA, NA, NA, NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, NA, ma3, NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA, ar3, NA, NA, ma3, ma4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar2, NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ma1, ma2, ma3, ma4, ma5, NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, ma5, NA, NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, ma2, ma3, ma4, NA, NA</t>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ar3, ar4, NA, ma1, NA, NA, ma4, ma5, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ar3, ar4, ar5, ma1, ma2, NA, ma4, ma5, ma6, ma7, NA</t>
   </si>
   <si>
     <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar6, ma1, ma3, ma6, ma7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ar4, ar5, ma2, ma4, ma5, ma8, drift</t>
   </si>
 </sst>
 </file>
@@ -615,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-8917.3547634073</v>
+        <v>-8917.35529457107</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -629,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-8915.36597255735</v>
+        <v>-8915.36650718905</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -643,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-8913.4370065277</v>
+        <v>-8913.43752560457</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -657,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-8912.46661567582</v>
+        <v>-8912.46713566088</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -671,7 +767,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>-8910.90780896404</v>
+        <v>-8910.90229863332</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -685,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>-8908.85752392706</v>
+        <v>-8908.85809585747</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -699,24 +795,24 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>-8914.23038380045</v>
+        <v>-8914.28096760088</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-8910.32501119911</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-8910.52279906718</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -727,7 +823,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>-8909.20488614636</v>
+        <v>-8909.20973753725</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -741,69 +837,69 @@
         <v>27</v>
       </c>
       <c r="B11" t="n">
-        <v>-8907.53837315562</v>
+        <v>-8907.52933245805</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-8911.69312437668</v>
+        <v>-8911.34586206755</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>-8903.59238432361</v>
+        <v>-8907.16208903582</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
-        <v>-8914.57172215042</v>
+        <v>-8904.08737455615</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-8914.8737670465</v>
+        <v>-8914.85380203196</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -836,13 +932,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>5071.50030265783</v>
+        <v>5071.49952925174</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -850,13 +946,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5073.49928632861</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5075.46375622732</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -867,55 +963,139 @@
         <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>5074.47657918204</v>
+        <v>5075.46297819763</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5068.97278900325</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5063.52958320186</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5074.50073785794</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="n">
-        <v>5066.35011666998</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5077.94824183586</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="n">
-        <v>5070.90405094463</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="n">
+        <v>5063.28722655595</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5077.25130223144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5068.79019446149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5079.93480197777</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5071.06464390959</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5072.48921454201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +1128,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
-        <v>-8933.89719060704</v>
+        <v>-8933.89772600716</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -962,10 +1142,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
-        <v>-8931.42107184697</v>
+        <v>-8933.34992475201</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -976,71 +1156,169 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
-        <v>-8932.56951777845</v>
+        <v>-8931.42158817947</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
-        <v>-8929.09497303372</v>
+        <v>-8929.4648100673</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
-        <v>-8926.06435605311</v>
+        <v>-8935.16091363555</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7" t="n">
-        <v>-8925.99824776606</v>
+        <v>-8933.78207368222</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" t="n">
-        <v>-8928.54494810254</v>
+        <v>-8929.09556965365</v>
       </c>
       <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-8927.45885311559</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-8926.05172176085</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-8924.18910946647</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-8926.11522656751</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-8926.0696123599</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-8928.53802630223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-8926.48974566597</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1074,30 +1352,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>5072.76274497512</v>
+        <v>5072.76197205779</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5074.76183908917</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="n">
-        <v>5076.70245938524</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -1105,55 +1383,139 @@
         <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>5075.72828646516</v>
+        <v>5076.70168044263</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>5064.34208321318</v>
+        <v>5070.08276306666</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="n">
-        <v>5064.22451241972</v>
+        <v>5077.57265201374</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5079.16090006558</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="n">
-        <v>5066.40461569633</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
+      <c r="B8" t="n">
+        <v>5065.13474753946</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5078.38050876867</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5066.36805567067</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5081.38272896553</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5073.22046884272</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5073.64168855734</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1189,10 +1551,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-8915.40153960128</v>
+        <v>-8915.40207081312</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1200,86 +1562,184 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-8911.48745123196</v>
+        <v>-8913.41157231529</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-8908.30867474027</v>
+        <v>-8911.48798024503</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-8909.15773477379</v>
+        <v>-8910.4977347046</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>-8907.158268298</v>
+        <v>-8908.3091939805</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>-8904.8960462401</v>
+        <v>-8906.64346114486</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>-8909.83479296358</v>
+        <v>-8911.68745579301</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-8907.94438178519</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-8907.20766606645</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-8905.57106932141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-8903.56724792876</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-8901.67806727844</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-8908.513373407</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-8912.83673992866</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Pertemuan 10-14/Model_NVDA.xlsx
+++ b/Pertemuan 10-14/Model_NVDA.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Drift2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Drift3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Drift4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Arch-Intersep" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Arch+Intersep" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Garch" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -361,6 +364,297 @@
   </si>
   <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ar4, ar5, ma2, ma4, ma5, ma8, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sig.par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non_Sig.par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega, alpha1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha2, alpha3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha2, alpha3, alpha4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha1, alpha2, alpha3, alpha4, alpha5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega, alpha1, alpha6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha2, alpha3, alpha4, alpha5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega, alpha6, alpha7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha6, alpha7, alpha8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega, alpha1, alpha2, alpha3, alpha4, alpha5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha6, alpha8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega, alpha1, alpha2, alpha3, alpha4, alpha5, alpha7, alpha9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega, alpha1, alpha2, alpha3, alpha4, alpha5, alpha7, alpha9, alpha10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega, alpha1, alpha2, alpha3, alpha4, alpha5, alpha7, alpha8, alpha9, alpha10, alpha11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH(12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha7, alpha8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omega, alpha1, alpha2, alpha3, alpha4, alpha5, alpha6, alpha9, alpha10, alpha11, alpha12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, ma1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, ma1, alpha2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, ma1, alpha2, alpha3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, ma1, alpha2, alpha3, alpha4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, ma1, alpha2, alpha3, alpha4, alpha5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha6, alpha7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, alpha1, alpha2, alpha3, alpha4, alpha5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, omega, alpha1, alpha2, alpha3, alpha4, alpha5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha6, alpha8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, ma1, omega, alpha1, alpha2, alpha3, alpha4, alpha5, alpha7, alpha9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, omega, alpha1, alpha2, alpha3, alpha4, alpha5, alpha7, alpha9, alpha10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, omega, alpha1, alpha2, alpha3, alpha4, alpha5, alpha7, alpha8, alpha9, alpha10, alpha11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, alpha6, alpha7, alpha8, alpha12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu, omega, alpha1, alpha2, alpha3, alpha4, alpha5, alpha9, alpha10, alpha11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(1,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, beta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, beta1, beta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(1,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, beta1, beta2, beta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(1,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, beta1, beta2, beta3, beta4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(1,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, beta1, beta2, beta3, beta4, beta5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(2,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, beta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(2,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, beta1, beta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, beta1, beta2, beta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(2,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, beta1, beta2, beta3, beta4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(2,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, beta1, beta2, beta3, beta4, beta5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(3,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, beta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(3,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, beta1, beta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(3,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, beta1, beta2, beta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(3,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, beta1, beta2, beta3, beta4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(3,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, beta1, beta2, beta3, beta4, beta5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(4,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, beta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(4,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, beta1, beta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(4,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, beta1, beta2, beta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(4,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, beta1, beta2, beta3, beta4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(4,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, beta1, beta2, beta3, beta4, beta5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(5,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, alpha5, beta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(5,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, alpha5, beta1, beta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(5,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, alpha5, beta1, beta2, beta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(5,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, alpha5, beta1, beta2, beta3, beta4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCH(5,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma1, omega, alpha1, alpha2, alpha3, alpha4, alpha5, beta1, beta2, beta3, beta4, beta5</t>
   </si>
 </sst>
 </file>
@@ -1746,4 +2040,930 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-11.0210329411342</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-11.0182741153868</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-11.0154785463788</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-11.0130344901657</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.0103277659074</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-11.0652939252526</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.1289554766485</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-11.1733271948902</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11.1694491624114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.1663834481057</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.1652716757793</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-11.2102145873909</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-11.021339194025</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-11.0185327534881</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-11.0157420887393</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-11.0132682326265</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.0107478603637</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-11.0654254122541</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.1265848684058</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-11.1712457288193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11.1673266096967</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.1642329316221</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.1631142980831</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-11.2115318539537</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-11.0350564455386</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-11.0362238391592</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-11.0400036990172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-11.0385854731879</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.041373477836</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-11.0273495409004</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.0334958444279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-11.0327866827929</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11.0336158771017</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.0602202016593</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.024057543798</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-11.0283288368768</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-11.0284537046124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-11.027169306867</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.0568929741115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-11.0245703059581</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-11.0267695565975</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-11.0257296936218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-11.0211649335756</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-11.0198822946043</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-11.0278755246295</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-11.0284186826177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-11.024739672574</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-11.0220543064891</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-11.0174819419814</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>